--- a/bin/XLS_Files/TestData.xlsx
+++ b/bin/XLS_Files/TestData.xlsx
@@ -16,49 +16,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>username1</t>
-  </si>
-  <si>
-    <t>username2</t>
-  </si>
-  <si>
-    <t>username3</t>
-  </si>
-  <si>
-    <t>username4</t>
-  </si>
-  <si>
-    <t>username5</t>
-  </si>
-  <si>
-    <t>username6</t>
-  </si>
-  <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>password3</t>
-  </si>
-  <si>
-    <t>password4</t>
-  </si>
-  <si>
-    <t>password5</t>
-  </si>
-  <si>
-    <t>password6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>manpreet</t>
+  </si>
+  <si>
+    <t>Selenium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,24 +373,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -415,39 +397,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/bin/XLS_Files/TestData.xlsx
+++ b/bin/XLS_Files/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>u1</t>
   </si>

--- a/bin/XLS_Files/TestData.xlsx
+++ b/bin/XLS_Files/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>u1</t>
   </si>
